--- a/medicine/Mort/Décès_en_1968/Décès_en_1968.xlsx
+++ b/medicine/Mort/Décès_en_1968/Décès_en_1968.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1968</t>
+          <t>Décès_en_1968</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1968</t>
+          <t>Décès_en_1968</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,17 +540,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Salomon Bernstein, peintre paysagiste français d'origine russe (° 11 février 1886).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Salomon Bernstein, peintre paysagiste français d'origine russe (° 11 février 1886).
 Eleanor Jane Taylor Calverley, missionnaire américaine au Koweït (° 24 mars 1887).
 Ettore Colla, peintre et sculpteur italien (° 16 avril 1896).
 Raymond Dendeville, peintre, graveur et illustrateur français (° 4 mars 1901).
 Anna Devaux-Raillon, peintre française (° 1891).
 Yvonne Kleiss-Herzig, peintre française (° 28 mai 1895).
 Nora Lancaster, actrice britannique (° 20 octobre 1882).
-Giulio Vittini, peintre italien (° 5 janvier 1888).
-Janvier
-1er janvier : Brooks Benedict, acteur américain (° 6 février 1896).
+Giulio Vittini, peintre italien (° 5 janvier 1888).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1968</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1968</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Brooks Benedict, acteur américain (° 6 février 1896).
 4 janvier :
 Jean Murat, acteur français (° 13 juillet 1888).
 Joseph Pholien, homme politique belge (° 28 décembre 1884).
@@ -555,9 +606,43 @@
 Claude Bils, peintre, dessinateur, caricaturiste français (° 15 août 1883).
 Ignace Gabriel Ier Tappouni, cardinal irakien, patriarche de l'Église catholique syriaque (° 3 novembre 1879).
 José Carlos de Macedo Soares, juriste, historien et homme politique brésilien (° 6 octobre 1883).
-Tsugouharu Foujita, peintre français d'origine japonaise (° 27 novembre 1886).
-Février
-4 février : Paul Geny, peintre français (° 6 juillet 1887).
+Tsugouharu Foujita, peintre français d'origine japonaise (° 27 novembre 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1968</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1968</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4 février : Paul Geny, peintre français (° 6 juillet 1887).
 5 février :
 Paul Richaud, cardinal français, archevêque de Bordeaux (° 16 avril 1887).
 Luckey Roberts, musicien de jazz américain (° 7 août 1887).
@@ -575,9 +660,43 @@
 25 février : Camille Huysmans, homme politique belge (° 26 mai 1871).
 27 février : Erwin Müller, homme politique allemand (° 18 mars 1906).
 28 février : Pierre Boven, juriste, botaniste et ornithologue suisse (° 24 janvier 1886).
-29 février : Charles Paris, peintre paysagiste français (° 9 septembre 1877).
-Mars
-3 mars :
+29 février : Charles Paris, peintre paysagiste français (° 9 septembre 1877).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1968</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1968</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 mars :
 Pepe Bienvenida, matador espagnol (° 7 janvier 1914).
 Jean Dulac, peintre et sculpteur français (° 12 février 1902).
 Édouard Léonard, coureur cycliste français (° 18 octobre 1882).
@@ -592,9 +711,43 @@
 22 mars : Geo Dorival, affichiste, dessinateur et peintre français (° 5 novembre 1879).
 26 mars : Walter Helbig, peintre, graphiste et sculpteur sur bois allemand et suisse (° 9 avril 1878).
 27 mars : Youri Gagarine, cosmonaute et premier homme de l'espace (° 9 mars 1934).
-? mars : Vladimir Barjansky, peintre et illustrateur d'origine russe (° 13 décembre 1892).
-Avril
-2 avril : Moses Levy, peintre et graveur italo-britannique (° 3 février 1885).
+? mars : Vladimir Barjansky, peintre et illustrateur d'origine russe (° 13 décembre 1892).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1968</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1968</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 avril : Moses Levy, peintre et graveur italo-britannique (° 3 février 1885).
 4 avril : Martin Luther King, pasteur baptiste et homme politique américain (° 15 janvier 1929).
 7 avril :
 Jim Clark, pilote de Formule 1 britannique (° 4 mars 1936).
@@ -614,9 +767,43 @@
 24 avril :
 Elizaveta Karamihailova, physicienne bulgare (° 3 septembre 1897).
 Henri Rheinwald, coureur cycliste suisse (° 24 juillet 1884).
-26 avril : John Heartfield, photographe et peintre allemand (° 19 juin 1891).
-Mai
-4 mai : Louis Boucoiran, haut fonctionnaire français (° 23 février 1886).
+26 avril : John Heartfield, photographe et peintre allemand (° 19 juin 1891).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1968</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1968</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>4 mai : Louis Boucoiran, haut fonctionnaire français (° 23 février 1886).
 7 mai : Vishnu Deo, homme politique fidjien (° 17 juillet 1900).
 9 mai :
 Luigi Corbellini, peintre italien (° 11 août 1901).
@@ -630,9 +817,43 @@
 29 mai :
 Jacques Chardonne, écrivain français (° 2 janvier 1884).
 Alice Cruppi, peintre et écrivain française (° 14 février 1887).
-31 mai : Walter Pfrimer, homme politique autrichien (° 22 décembre 1881).
-Juin
-1er juin :
+31 mai : Walter Pfrimer, homme politique autrichien (° 22 décembre 1881).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1968</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1968</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin :
 Helen Keller, écrivaine, conférencière et militante américaine (° 27 juin 1880)
 4 juin :
 Jack Hobbs, acteur britannique (° 28 septembre 1893).
@@ -656,9 +877,43 @@
 29 juin : Antoine Chartres, peintre français (° 2 janvier 1903).
 30 juin :
 Aurelio León, footballeur espagnol (° 13 août 1915).
-Jules Rossi, coureur cycliste italien (° 3 novembre 1914).
-Juillet
-5 juillet :
+Jules Rossi, coureur cycliste italien (° 3 novembre 1914).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1968</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1968</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5 juillet :
 Maurice Baskine, peintre français (° 7 octobre 1901).
 Enrique Pla y Deniel, cardinal espagnol, archevêque de Tolède (° 19 décembre 1876).
 7 juillet :
@@ -668,9 +923,43 @@
 14 juillet : Françoise Élie, résistante française (° 16 septembre 1906).
 19 juillet : Emily Sadka, historienne singapourienne (° 1919).
 26 juillet : Cemal Tollu, peintre turc (° 19 avril 1899).
-28 juillet : Otto Hahn, chimiste allemand (° 8 mars 1879).
-Août
-2 août :
+28 juillet : Otto Hahn, chimiste allemand (° 8 mars 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1968</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1968</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août :
 Hans Kürsteiner, espérantiste suisse (° 14 novembre 1885).
 François Ondet, coureur cycliste français (° 2 décembre 1902).
 7 août : Louis Süe, architecte, décorateur et peintre français (° 14 juillet 1875).
@@ -686,9 +975,43 @@
 25 août : Hélène Holzman, peintre allemande (° 30 août 1891).
 31 août :
 Ahmed Francis, homme politique algérien (° 1912).
-Ezio Sclavi, joueur et entraîneur de football italien, reconvertit par la suite en tant que peintre (° 23 mars 1903).
-Septembre
-1er septembre : Giuseppe Enrici, coureur cycliste italien (° 2 janvier 1896).
+Ezio Sclavi, joueur et entraîneur de football italien, reconvertit par la suite en tant que peintre (° 23 mars 1903).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1968</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1968</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre : Giuseppe Enrici, coureur cycliste italien (° 2 janvier 1896).
 2 septembre : André Girard, écrivain, résistant, peintre, illustrateur, caricaturiste et affichiste français (° 25 mai 1901).
 3 septembre :
 Juan José Castro, compositeur et chef d'orchestre argentin (° 7 mars 1895).
@@ -700,9 +1023,43 @@
 18 septembre : León Felipe, poète espagnol (° 11 avril 1884).
 23 septembre : Padre Pio, capucin et prêtre catholique italien  (° 25 mai 1887).
 24 septembre : Thakin Than Tun, leader communiste birman (° 1911).
-30 septembre : Jeanne L. Gauzy, peintre française (° 4 janvier 1886).
-Octobre
-2 octobre : Marcel Duchamp, peintre, plasticien et homme de lettres français naturalisé américain (° 28 juillet 1887).
+30 septembre : Jeanne L. Gauzy, peintre française (° 4 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1968</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1968</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre : Marcel Duchamp, peintre, plasticien et homme de lettres français naturalisé américain (° 28 juillet 1887).
 4 octobre : Lawrence M. Judd, homme politique américain (° 20 mars 1887).
 8 octobre : Pierre Guastalla, peintre, illustrateur, graveur sur cuivre, xylographe et lithographe français (° 5 août 1891).
 9 octobre :
@@ -717,9 +1074,43 @@
 19 octobre : Julia Lee Niebergall, compositrice américaine (° 15 février 1886).
 28 octobre : Élie Lascaux, peintre naïf français (° 5 avril 1888).
 29 octobre : Nicasio Safadi, musicien équatorien d'origine libanaise (° 1902).
-31 octobre : Léopold Survage, peintre français (° 31 juillet 1879).
-Novembre
-1 novembre :
+31 octobre : Léopold Survage, peintre français (° 31 juillet 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1968</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1968</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1 novembre :
 Francisco Campos, juriste et homme politique brésilien (° 18 novembre 1891).
 Georgios Papandreou, homme politique grec (° 13 février 1888).
 3 novembre :
@@ -749,9 +1140,43 @@
 30 novembre :
 Charles Henry Bartlett, coureur cycliste britannique (° 6 février 1885).
 Juan José Tramutola, joueur et entraîneur de football argentin (° 21 octobre 1902).
-? novembre : Percy Verwayne, acteur américain d'origine britannique (° 10 mars 1895).
-Décembre
-1er décembre : Dario Moreno, chanteur d'opérette et acteur turc (° 3 avril 1921).
+? novembre : Percy Verwayne, acteur américain d'origine britannique (° 10 mars 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1968</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1968</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1er décembre : Dario Moreno, chanteur d'opérette et acteur turc (° 3 avril 1921).
 3 décembre : Ray Bennion, footballeur international gallois (° 1er septembre 1896).
 4 décembre : Jean d'Esparbès, peintre français (° 8 mars 1899).
 7 décembre : Pierre Jaminet, coureur cycliste français (° 12 février 1912).
